--- a/my_app/uploads/data.xlsx
+++ b/my_app/uploads/data.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Candidates" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,11 +45,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF4"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AF104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -838,12 +838,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Offer Made</t>
+          <t>Sent</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Top candidate</t>
+          <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
@@ -866,10 +866,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-18 18:48:54</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>12/18/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>sam.wilson@example.com</t>
@@ -885,11 +889,7 @@
           <t>https://linkedin.com/in/samwilson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://example.com/resume/samwilson</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>UI/UX Designer</t>
@@ -905,11 +905,7 @@
           <t>Creative Designs</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1-2 years</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>Chennai</t>
@@ -930,16 +926,8 @@
           <t>1000000</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>15 days</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -963,27 +951,9047 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
+          <t>Applied</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>Rejected</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Not enough experience</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04-30 20:12:18</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arhaan Kapadia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cvohra@ganesan.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7830105205</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/pranayvohra</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/xbal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>De LLC</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Adoni</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-29 21:36:58</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lakshit Basak</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nbajwa@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8627315179</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/kalasamiha</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/nsachdev</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sankar-Dave</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Malegaon</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-05 19:00:50</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biju Arora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>zoyasathe@amble.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8231877696</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ivanabalasubramanian</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/choudharyahana</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Badami, Zachariah and Rout</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Dehri</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-27 08:20:04</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Armaan Jayaraman</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jmangat@gulati.org</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7378433000</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/zbhalla</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/wbahri</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Sridhar Ltd</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Udupi</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
         <is>
           <t>Rejected</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Not enough experience</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr">
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-25 13:45:40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mohanlal Hans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ibrar@chakrabarti.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8935334501</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/daliapiya</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kairashankar</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Gole, Chokshi and Thakur</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Raebareli</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-18 00:47:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rohan Vohra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mkonda@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7030291479</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/krishnanyuvraj</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/bariayuvaan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Deshmukh-Mann</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Aurangabad</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-01-16 18:18:36</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nayantara Kapadia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nirvi29@kohli-bali.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8934671273</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sehershenoy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/hiran68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Luthra-Ranganathan</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Bhind</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-12-05 23:38:07</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Farhan Bassi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>divij97@gmail.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7395772794</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/zeeshan00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/ela56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Shere LLC</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Ambarnath</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-05-01 05:40:23</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anay Bail</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>advikachaudry@gmail.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8409399302</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/brarsahil</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/viswanathanalia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Kumer-Dewan</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Hubli–Dharwad</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-12-01 23:19:57</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Madhav Boase</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>baradshayak@kakar-wadhwa.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6525272979</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/pari94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/tvora</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Gara Group</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Srikakulam</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-27 04:35:11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nakul Srinivas</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>batrakiara@kurian-buch.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8197446716</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gandhishamik</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/devansh64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Dada LLC</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Ranchi</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-14 14:38:02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Azad Kar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>nayantarasridhar@keer.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7285308061</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/badalbir</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/vaidyasahil</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Sekhon-Sur</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Indore</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-03-29 01:46:23</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Ivana Singh</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>stuvan33@vig.net</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6490246290</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sarkareshani</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/auroraira</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Sant, Tata and Kuruvilla</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Ujjain</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-25 19:00:38</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Heer Buch</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>hrishita46@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9742828172</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dugarranbir</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/tramakrishnan</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Iyer-Kohli</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Avadi</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-17 19:36:47</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tara Agate</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ghoshaaryahi@kapadia-sachdev.info</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6651748600</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jlata</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/ramaswamymiraya</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Swaminathan-Yadav</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Asansol</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-21 11:33:10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Saanvi Chawla</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>suleseher@chakrabarti.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8065568354</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/amira24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/trisha70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Khare-Gola</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Hazaribagh</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-26 15:32:02</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alia Kadakia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>manikya56@ramanathan.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6193731626</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/waggarwal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kiaan96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Shenoy Group</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Kulti</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-01 21:49:19</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bhavin Sethi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>adah81@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8904863666</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ritvik43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/zoyamann</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Lad-Kalla</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Morena</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-06-22 21:45:05</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nakul Ghose</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sahillal@som.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9989562708</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/aggarwallakshay</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/rohanranganathan</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Apte-Shah</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sri Ganganagar</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-16 19:11:04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Adira Bhatia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>xmaharaj@behl.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7552470686</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/kairabhardwaj</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/taimurarya</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Dubey Ltd</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Hindupur</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-06-10 22:15:46</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Devansh Rastogi</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>adah32@dass-chandra.org</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9420559460</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/wagledarshit</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/wreddy</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Sankaran-Kaur</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Kharagpur</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-03-31 16:20:15</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ivana Suresh</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vihaan74@chakrabarti-seth.biz</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9261019512</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/galavanya</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/riaandeo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Majumdar and Sons</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Ambarnath</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-03-17 02:51:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Myra Sha</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mdeshpande@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9599639167</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jayan10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/sherealia</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Bhasin-Edwin</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Surat</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-21 13:00:23</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kabir Verma</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ysandhu@gmail.com</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9091091154</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/agrawalnitara</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/madhup70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Boase Ltd</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-06-28 19:35:05</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Vedika Chahal</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>goleishaan@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8510273585</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/bbrar</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/lakshaymane</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Bala Inc</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Adoni</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-22 17:16:21</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Aarna Shah</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>kapurprerak@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6503639181</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/seher81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/krishnatiya</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Arya LLC</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-11-08 18:40:06</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sahil Ratti</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>shayak46@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7038537160</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/raunak68</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/sahiltata</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Kara Inc</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Bhilai</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:48:58</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Dharmajan Datta</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>suhana81@gara.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9629382439</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/vidur33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/shamik49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Bhatnagar, Dubey and Tak</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Gaya</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-11-08 19:36:03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Madhav Raval</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>advikakanda@rattan.net</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7269000448</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/wgolla</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/yasminbabu</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Divan PLC</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Katihar</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-04-10 00:52:42</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Taimur Bhatnagar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>samiira@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6570030448</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mirayasaxena</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/yashvikala</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Jani, Majumdar and Balasubramanian</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Ghaziabad</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-19 09:11:43</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Indrans Guha</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>pari22@bora.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9387626906</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/miyengar</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/jchanda</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Bali and Sons</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Ludhiana</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-01-25 09:29:57</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Damini Mann</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>jainvihaan@divan-ghose.biz</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9096161015</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/chandranirvi</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/vaibhavsule</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Cherian-Srinivas</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Gulbarga</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-05-11 16:44:04</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Badal Manda</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ndhillon@gmail.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6669910203</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/tiyavarty</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/cherianjayan</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Loyal-Bhavsar</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Kalyan-Dombivli</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-10-11 03:34:02</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Suhana Kala</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>jshan@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9647104688</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/goswamitaran</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/eviswanathan</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Bora, Choudhary and Tripathi</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Cuttack</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-10-24 22:23:47</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nakul Shetty</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>charyashvi@chauhan.biz</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7579634000</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jkorpal</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/lmagar</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Bains Ltd</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Sambalpur</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-06-11 01:57:07</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ishaan Lanka</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ichacko@walla.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9746130885</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mangatnirvi</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kiberhea</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Bhargava-Vasa</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Aurangabad</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-21 22:33:36</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Pranay Barad</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>rattaivan@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6860879175</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/kapadiarania</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/wsarraf</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Rout-Brar</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Junagadh</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-12-04 12:00:21</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Elakshi Sha</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>tanknavya@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7437593650</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/asridhar</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/vchander</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Master PLC</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Bulandshahr</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-06-20 08:54:54</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Baiju Tak</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>nishith30@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8210228714</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/shraybains</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/srajagopalan</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Kumer, Borah and Choudhary</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Silchar</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-03-22 18:27:08</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Prerak Kapoor</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>dgole@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7517031969</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/keya14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/routzoya</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Dua-Sabharwal</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Tiruvottiyur</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-08-02 00:56:33</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Adira Chauhan</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>shaan83@gmail.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6918252058</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/misha46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kalakavya</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Wagle PLC</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Rewa</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-02-07 02:05:14</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Bhavin Chaudhary</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ryan30@gmail.com</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6396674441</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/chakrabartinitya</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/renee59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Cheema and Sons</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Nagaon</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-01-30 14:38:40</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Manjari Kibe</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>deshpandeumang@cherian.org</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8602672805</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mohanlalseshadri</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/warriormadhup</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Shetty, Tiwari and Brahmbhatt</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Raurkela Industrial Township</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-04-16 19:19:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Abram Bahl</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>kulkarniamira@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6870932427</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/pvarma</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/jayant22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Seshadri-Dutta</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Aizawl</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-03-12 23:11:35</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mishti Bala</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ivan89@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9467848952</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/riyakapoor</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kiara34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Srinivasan, Ghosh and D’Alia</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Ongole</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-06-18 02:15:42</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Damini Bhakta</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>cherianeva@kanda-rao.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9820462080</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/rashachand</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/daninishith</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Das-Devi</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Dehradun</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-11-29 13:28:33</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Gatik Srivastava</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>borrahunar@guha.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7191674670</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mohanlalmahal</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kannannehmat</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Ghose, Kohli and Barad</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Gangtok</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-01-18 07:12:13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Anika Bala</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>drishyakalita@borah.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7012923990</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/wadhwaaniruddh</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/rdeshmukh</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Dass, Ahuja and Das</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Latur</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-10-07 12:51:31</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hiran Bansal</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>yuvraj-gopal@dass.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7944606533</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/misha56</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/siya00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Hans-Tailor</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Bhimavaram</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-04-09 23:14:19</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Pihu Vora</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>doravihaan@hora.biz</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8910813621</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sairasrinivas</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/deoelakshi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Sarraf Group</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Durg</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-03-22 18:44:34</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Khushi Suri</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>gargpranay@sur-koshy.biz</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8470443194</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/anay81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/semadvika</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Lanka Group</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Nizamabad</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-02-06 04:05:53</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Aniruddh Khosla</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>lsen@sahota.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9440405357</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ksahota</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/darshitvarughese</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Chaudhuri, Ghosh and Sathe</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Avadi</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-03 01:27:31</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Lavanya Vaidya</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>shalv10@gmail.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8356519098</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/neelofar33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/ramaswamydamini</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Sridhar, Raman and Ranganathan</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Kollam</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-08-23 18:10:50</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nayantara Uppal</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>kiberomil@sur-dutt.com</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8320453856</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sarnamisha</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/arandhawa</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Karan-Bhat</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Mango</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-11-16 13:07:45</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Veer Kalita</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>nirvaan25@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7349235089</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/krishtara</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/onkar05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Sagar PLC</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Kakinada</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-03-24 20:54:55</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Indrans Sawhney</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>atwalrhea@gmail.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7179814204</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/odalia</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/lallariaan</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Dhar-Kala</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Bhusawal</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-01 00:28:19</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mannat Balan</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>kbalan@chacko.biz</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7302678317</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/lkurian</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/xaurora</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Krish, Thaman and Deshpande</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Madhyamgram</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-08-22 03:40:58</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Dharmajan Zachariah</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>lshukla@dani.com</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9690205329</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/emirchhabra</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/jivin10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Tella Inc</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Kozhikode</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-01-24 04:22:10</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Gokul Shah</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>qahuja@dani.org</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8302534543</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/fdugar</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/dhanukgrover</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Sampath PLC</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Ahmedabad</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-04-24 09:51:43</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mahika Dora</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>doctorkeya@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8501912337</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dharmajan29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/rhea39</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Savant-Kannan</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Mangalore</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-11-08 18:13:41</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Biju Luthra</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>rthakkar@gmail.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7116017736</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ritvikganesh</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/manimohanlal</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Garg, Chakrabarti and Sami</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Navi Mumbai</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-03-15 02:29:27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Indrans Setty</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>stuvanmaharaj@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7473416092</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sanghvieshani</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/nirvisant</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Thaman-Malhotra</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Solapur</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-28 06:23:04</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Tarini Vaidya</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>inaaya-21@soman.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6887163344</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/diya95</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/akarshjha</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Agarwal and Sons</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Chinsurah</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-12-17 08:53:02</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Dhanush Bahri</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>lakshit85@sawhney.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6063086198</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/cgour</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/subramaniantrisha</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Krishna PLC</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Aligarh</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-11-27 02:50:22</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sumer Subramanian</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>tramanathan@dhar.info</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9716973257</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/piyadhar</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/seshadriira</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Bhattacharyya-Chacko</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Bettiah</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-05-11 15:16:11</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kimaya Bhatia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>dewandivij@bhagat.com</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7363645360</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dhawandhanush</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/bandianika</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Trivedi-Biswas</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Durg</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-15 16:25:20</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Aarush Jayaraman</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>singhanay@karnik-soni.org</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6675773252</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/romil89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/aswamy</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Dora-Randhawa</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Malegaon</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-04 01:32:40</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hazel Ben</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>swamykiaan@borah-chadha.info</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7076022403</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/saira69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/hirankrish</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Iyengar, Sur and Raman</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Raurkela Industrial Township</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-08-01 06:04:30</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Hiran Kuruvilla</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>biswasahana@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9009595247</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/adahbhatnagar</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/farhan33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Tata Ltd</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Warangal</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-09-22 17:26:51</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Yuvaan Singhal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>khalsanishith@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6782077480</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sagartara</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/lsalvi</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Master, Aurora and Gokhale</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Panvel</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-01-31 06:40:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Heer Mani</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>reneeswaminathan@buch.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>9837521784</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ishitasachdeva</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/jayeshrajagopalan</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Tiwari LLC</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Bhatpara</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-10-21 03:55:24</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Nitara Bansal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>tkarnik@tara.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7485466610</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/manjari08</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/anahishanker</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Gour, Vaidya and Bhakta</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Jorhat</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-02-15 12:27:27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Myra Dhar</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>bordehunar@edwin.info</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8337419904</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jayaramanadvika</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/usabharwal</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Cherian LLC</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Nagpur</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-04-24 08:57:17</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Vaibhav Dey</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>raunak80@saha-som.com</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6914978271</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/adahkhanna</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/rajujivin</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Tank Ltd</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Ballia</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-10-25 01:11:39</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Vihaan Gade</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>nchaudhry@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6779130141</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/balibaiju</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/samairachakrabarti</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Kale Inc</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Nagaon</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-04-30 01:49:56</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Urvi Lal</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>shankarjayesh@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6425854038</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mdubey</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/vghose</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Datta, Dara and Rege</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Barasat</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-02-27 06:34:06</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Biju Batta</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>singhkiara@biswas-deol.net</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>9972532921</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/bariadhanuk</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/psane</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Desai LLC</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Tezpur</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-07-22 17:50:14</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Bhavin Datta</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>bhardwajsuhana@kunda.info</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7039215008</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/gsood</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/walladarshit</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Kumar-Kohli</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Chapra</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-03-02 10:14:03</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Manjari Golla</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>paributala@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8466628903</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/pkunda</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/ncomar</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Dora, Tak and Bhavsar</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Buxar</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-02-14 11:17:14</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Zain Sura</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>fatehgera@kala.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>9813840453</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/siya01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/bhaminisaini</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Gill-Loke</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Kollam</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-22 07:22:52</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Dharmajan Sen</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>tyadav@gmail.com</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6184787488</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/wvyas</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/btripathi</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Gala, Ranganathan and Sama</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Rourkela</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-05-20 03:27:27</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Rohan Kothari</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>rkapadia@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>9524968141</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/sara80</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/stuvanswamy</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Venkatesh Inc</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Arrah</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-05-31 20:53:34</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Anvi Dutt</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>zbains@aggarwal.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>9259173291</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/mchacko</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kiara85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Seth, Chhabra and Srinivasan</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Bareilly</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-01-02 09:28:11</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Aayush Mani</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>samaira84@ramaswamy.biz</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7670878749</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/balabadal</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/nravel</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Ravel Group</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Khammam</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-06-26 17:58:52</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Gokul Khosla</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>krishlala@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6266787115</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/myra89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/qbal</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Ranganathan-Din</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Sambhal</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-02-18 05:26:33</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Samiha Karpe</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vardaniyasinha@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8957805068</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ojaskapoor</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/faiyazkeer</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Ahluwalia and Sons</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Dibrugarh</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-04-12 23:43:25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Ela Warrior</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vbobal@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7499770170</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dishani90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/kgrewal</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Bedi, Aurora and Agate</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Burhanpur</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-06-10 15:55:10</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ela Devan</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>anay45@gmail.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>9304556826</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/khatrirania</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/ayeshachana</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Kashyap, Contractor and Baral</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Chandrapur</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-03-15 15:49:50</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Samarth Dhawan</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>basujayan@das-buch.com</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7832075141</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/hansh06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/dharmajanuppal</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Lalla PLC</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Kozhikode</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-02 22:22:37</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Reyansh Borah</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>shalvwarrior@mahajan-lal.com</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6488206870</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/hegdemamooty</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/rasha30</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Baria Group</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Vellore</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-07-19 14:51:35</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Shlok Gulati</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>manisamiha@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9301148678</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/vaibhavbail</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/anvibahri</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Edwin-Mangal</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Hindupur</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-05-22 11:39:36</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Neysa Lalla</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>hrishitachawla@gmail.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8616006640</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dugaradah</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/tara42</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Vaidya, Kurian and Chokshi</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Haldia</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-11-01 03:46:39</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Faiyaz Jaggi</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>tusharmani@chandra.com</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>6658104673</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ela00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/hsamra</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Sachdev LLC</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Akola</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>60 Days</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-11-25 05:22:13</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Advika Bassi</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>yuvraj-82@apte-rama.com</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9283081201</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/ritvik79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/trisha63</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Balay LLC</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Gudivada</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-05-24 20:34:20</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Zeeshan Krish</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>deyuvaan@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7131013057</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/darahridaan</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/balmiraya</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Gill-Deol</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Sambalpur</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>30 Days</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-04-06 14:03:15</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Jiya De</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>boaseayesha@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>9683531155</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/soodelakshi</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/lallanishith</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Rajan-Desai</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Bikaner</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-12-02 18:07:39</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Divij Chaudhuri</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>pdoctor@rau.biz</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>6243876479</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/vritika68</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/ojas60</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Analyst</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Randhawa-Lala</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Rohtak</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-09-28 12:33:29</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Kismat Borah</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>faiyaz57@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>6553169837</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/dugarcharvi</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/buchstuvan</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Wason Ltd</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Aligarh</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-09-21 00:03:22</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Mamooty Kale</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>myra31@bahri.net</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>9493225964</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jvarghese</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/chaudharireyansh</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Junior Engineer</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Bumb PLC</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Tezpur</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>15 Days</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>In Progress</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-05-31 15:24:16</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Gatik Andra</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>sara88@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7651420433</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jrajagopalan</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://example.com/resume/jhanvi85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Intern</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Bora-Handa</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Sultan Pur Majra</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Immediate</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/my_app/uploads/data.xlsx
+++ b/my_app/uploads/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF104"/>
+  <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:AF104"/>
@@ -582,6 +582,11 @@
           <t>Reject Mail Sent</t>
         </is>
       </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Screened By</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,7 +616,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://example.com/resume/johndoe</t>
+          <t>Resume_JohnDoe_2.pdf</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -724,6 +729,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -753,7 +759,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://example.com/resume/janesmith</t>
+          <t>Resume_JaneSmith_3.pdf</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -848,7 +854,11 @@
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>{"Communication":"good","Technical Assessment":"good","Problem-Solving":"good","Overall Potential":"good","Recommendation":"Proceed Round 2"}</t>
+        </is>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr">
@@ -862,6 +872,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>ashwin</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -889,7 +904,11 @@
           <t>https://linkedin.com/in/samwilson</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Resume_Ram_4.pdf</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>UI/UX Designer</t>
@@ -996,6 +1015,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1025,7 +1045,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://example.com/resume/xbal</t>
+          <t>Resume_ArhaanKapadia_5.pdf</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1086,6 +1106,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1115,7 +1136,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://example.com/resume/nsachdev</t>
+          <t>Resume_LakshitBasak_6.pdf</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1176,6 +1197,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1205,7 +1227,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://example.com/resume/choudharyahana</t>
+          <t>Resume_BijuArora_7.pdf</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1266,6 +1288,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1295,7 +1318,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://example.com/resume/wbahri</t>
+          <t>Resume_ArmaanJayaraman_8.pdf</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1356,6 +1379,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1385,7 +1409,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kairashankar</t>
+          <t>Resume_MohanlalHans_9.pdf</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1446,11 +1470,12 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-02-18 00:47:00</t>
+          <t>2/18/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1475,7 +1500,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://example.com/resume/bariayuvaan</t>
+          <t>Resume_RohanVohra_10.pdf</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1516,17 +1541,33 @@
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Applied</t>
+        </is>
+      </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Proceed Further</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>good candidate</t>
+        </is>
+      </c>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>{"Communication":"good ","Technical Assessment":"good","Problem-Solving":"good","Overall Potential":"good","Recommendation":""}</t>
+        </is>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
@@ -1536,6 +1577,11 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1565,7 +1611,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://example.com/resume/hiran68</t>
+          <t>Resume_NayantaraKapadia_11.pdf</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1626,6 +1672,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1655,7 +1702,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://example.com/resume/ela56</t>
+          <t>Resume_FarhanBassi_12.pdf</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1716,6 +1763,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1745,7 +1793,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://example.com/resume/viswanathanalia</t>
+          <t>Resume_AnayBail_13.pdf</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1806,6 +1854,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1835,7 +1884,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://example.com/resume/tvora</t>
+          <t>Resume_MadhavBoase_14.pdf</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1896,6 +1945,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1925,7 +1975,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://example.com/resume/devansh64</t>
+          <t>Resume_NakulSrinivas_15.pdf</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1986,6 +2036,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2015,7 +2066,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://example.com/resume/vaidyasahil</t>
+          <t>Resume_AzadKar_16.pdf</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2076,6 +2127,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2105,7 +2157,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://example.com/resume/auroraira</t>
+          <t>Resume_IvanaSingh_17.pdf</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2166,6 +2218,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2195,7 +2248,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://example.com/resume/tramakrishnan</t>
+          <t>Resume_HeerBuch_18.pdf</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2256,6 +2309,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2285,7 +2339,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://example.com/resume/ramaswamymiraya</t>
+          <t>Resume_TaraAgate_19.pdf</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2346,6 +2400,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2375,7 +2430,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://example.com/resume/trisha70</t>
+          <t>Resume_SaanviChawla_20.pdf</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2436,6 +2491,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2465,7 +2521,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kiaan96</t>
+          <t>Resume_AliaKadakia_21.pdf</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2526,6 +2582,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2555,7 +2612,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://example.com/resume/zoyamann</t>
+          <t>Resume_BhavinSethi_22.pdf</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2616,6 +2673,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2645,7 +2703,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://example.com/resume/rohanranganathan</t>
+          <t>Resume_NakulGhose_23.pdf</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2706,6 +2764,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2735,7 +2794,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://example.com/resume/taimurarya</t>
+          <t>Resume_AdiraBhatia_24.pdf</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2796,6 +2855,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2825,7 +2885,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://example.com/resume/wreddy</t>
+          <t>Resume_DevanshRastogi_25.pdf</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2886,6 +2946,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2915,7 +2976,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://example.com/resume/riaandeo</t>
+          <t>Resume_IvanaSuresh_26.pdf</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2976,6 +3037,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3005,7 +3067,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://example.com/resume/sherealia</t>
+          <t>Resume_MyraSha_27.pdf</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3066,6 +3128,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3095,7 +3158,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://example.com/resume/madhup70</t>
+          <t>Resume_KabirVerma_28.pdf</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3156,6 +3219,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3185,7 +3249,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://example.com/resume/lakshaymane</t>
+          <t>Resume_VedikaChahal_29.pdf</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3246,6 +3310,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3275,7 +3340,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://example.com/resume/krishnatiya</t>
+          <t>Resume_AarnaShah_30.pdf</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3336,6 +3401,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3365,7 +3431,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://example.com/resume/sahiltata</t>
+          <t>Resume_SahilRatti_31.pdf</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3426,6 +3492,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3455,7 +3522,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://example.com/resume/shamik49</t>
+          <t>Resume_DharmajanDatta_32.pdf</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3516,6 +3583,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3545,7 +3613,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://example.com/resume/yasminbabu</t>
+          <t>Resume_MadhavRaval_33.pdf</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3606,6 +3674,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3635,7 +3704,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://example.com/resume/yashvikala</t>
+          <t>Resume_TaimurBhatnagar_34.pdf</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3696,6 +3765,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3725,7 +3795,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://example.com/resume/jchanda</t>
+          <t>Resume_IndransGuha_35.pdf</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3786,6 +3856,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3815,7 +3886,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://example.com/resume/vaibhavsule</t>
+          <t>Resume_DaminiMann_36.pdf</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3876,6 +3947,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3905,7 +3977,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://example.com/resume/cherianjayan</t>
+          <t>Resume_BadalManda_37.pdf</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3966,6 +4038,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3995,7 +4068,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://example.com/resume/eviswanathan</t>
+          <t>Resume_SuhanaKala_38.pdf</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4056,6 +4129,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4085,7 +4159,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://example.com/resume/lmagar</t>
+          <t>Resume_NakulShetty_39.pdf</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4146,6 +4220,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4175,7 +4250,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kiberhea</t>
+          <t>Resume_IshaanLanka_40.pdf</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4236,6 +4311,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4265,7 +4341,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://example.com/resume/wsarraf</t>
+          <t>Resume_PranayBarad_41.pdf</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4326,6 +4402,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4355,7 +4432,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://example.com/resume/vchander</t>
+          <t>Resume_ElakshiSha_42.pdf</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4416,6 +4493,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4445,7 +4523,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://example.com/resume/srajagopalan</t>
+          <t>Resume_BaijuTak_43.pdf</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4506,6 +4584,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4535,7 +4614,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://example.com/resume/routzoya</t>
+          <t>Resume_PrerakKapoor_44.pdf</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4596,6 +4675,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4625,7 +4705,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kalakavya</t>
+          <t>Resume_AdiraChauhan_45.pdf</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4686,6 +4766,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4715,7 +4796,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://example.com/resume/renee59</t>
+          <t>Resume_BhavinChaudhary_46.pdf</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4776,6 +4857,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4805,7 +4887,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://example.com/resume/warriormadhup</t>
+          <t>Resume_ManjariKibe_47.pdf</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4866,6 +4948,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4895,7 +4978,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://example.com/resume/jayant22</t>
+          <t>Resume_AbramBahl_48.pdf</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4956,6 +5039,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4985,7 +5069,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kiara34</t>
+          <t>Resume_MishtiBala_49.pdf</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5046,6 +5130,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5075,7 +5160,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://example.com/resume/daninishith</t>
+          <t>Resume_DaminiBhakta_50.pdf</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5136,6 +5221,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5165,7 +5251,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kannannehmat</t>
+          <t>Resume_GatikSrivastava_51.pdf</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5226,6 +5312,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5255,7 +5342,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://example.com/resume/rdeshmukh</t>
+          <t>Resume_AnikaBala_52.pdf</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5316,6 +5403,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5345,7 +5433,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://example.com/resume/siya00</t>
+          <t>Resume_HiranBansal_53.pdf</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5406,6 +5494,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5435,7 +5524,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://example.com/resume/deoelakshi</t>
+          <t>Resume_PihuVora_54.pdf</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5496,6 +5585,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5525,7 +5615,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://example.com/resume/semadvika</t>
+          <t>Resume_KhushiSuri_55.pdf</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5586,6 +5676,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5615,7 +5706,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://example.com/resume/darshitvarughese</t>
+          <t>Resume_AniruddhKhosla_56.pdf</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5676,6 +5767,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5705,7 +5797,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://example.com/resume/ramaswamydamini</t>
+          <t>Resume_LavanyaVaidya_57.pdf</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5766,6 +5858,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5795,7 +5888,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://example.com/resume/arandhawa</t>
+          <t>Resume_NayantaraUppal_58.pdf</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5856,6 +5949,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5885,7 +5979,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://example.com/resume/onkar05</t>
+          <t>Resume_VeerKalita_59.pdf</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5946,6 +6040,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5975,7 +6070,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://example.com/resume/lallariaan</t>
+          <t>Resume_IndransSawhney_60.pdf</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -6036,6 +6131,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6065,7 +6161,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://example.com/resume/xaurora</t>
+          <t>Resume_MannatBalan_61.pdf</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6126,6 +6222,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6155,7 +6252,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://example.com/resume/jivin10</t>
+          <t>Resume_DharmajanZachariah_62.pdf</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -6216,6 +6313,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6245,7 +6343,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://example.com/resume/dhanukgrover</t>
+          <t>Resume_GokulShah_63.pdf</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -6306,6 +6404,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6335,7 +6434,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://example.com/resume/rhea39</t>
+          <t>Resume_MahikaDora_64.pdf</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6396,6 +6495,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6425,7 +6525,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://example.com/resume/manimohanlal</t>
+          <t>Resume_BijuLuthra_65.pdf</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -6486,6 +6586,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6515,7 +6616,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://example.com/resume/nirvisant</t>
+          <t>Resume_IndransSetty_66.pdf</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6576,6 +6677,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6605,7 +6707,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://example.com/resume/akarshjha</t>
+          <t>Resume_TariniVaidya_67.pdf</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6666,6 +6768,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6695,7 +6798,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://example.com/resume/subramaniantrisha</t>
+          <t>Resume_DhanushBahri_68.pdf</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6756,6 +6859,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6785,7 +6889,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://example.com/resume/seshadriira</t>
+          <t>Resume_SumerSubramanian_69.pdf</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6846,6 +6950,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6875,7 +6980,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://example.com/resume/bandianika</t>
+          <t>Resume_KimayaBhatia_70.pdf</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6936,6 +7041,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6965,7 +7071,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://example.com/resume/aswamy</t>
+          <t>Resume_AarushJayaraman_71.pdf</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -7026,6 +7132,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7055,7 +7162,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://example.com/resume/hirankrish</t>
+          <t>Resume_HazelBen_72.pdf</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -7116,6 +7223,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7145,7 +7253,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://example.com/resume/farhan33</t>
+          <t>Resume_HiranKuruvilla_73.pdf</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -7206,6 +7314,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7235,7 +7344,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://example.com/resume/lsalvi</t>
+          <t>Resume_YuvaanSinghal_74.pdf</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -7296,6 +7405,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7325,7 +7435,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://example.com/resume/jayeshrajagopalan</t>
+          <t>Resume_HeerMani_75.pdf</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -7386,6 +7496,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7415,7 +7526,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://example.com/resume/anahishanker</t>
+          <t>Resume_NitaraBansal_76.pdf</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -7476,6 +7587,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7505,7 +7617,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://example.com/resume/usabharwal</t>
+          <t>Resume_MyraDhar_77.pdf</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -7566,6 +7678,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7595,7 +7708,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://example.com/resume/rajujivin</t>
+          <t>Resume_VaibhavDey_78.pdf</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -7656,6 +7769,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7685,7 +7799,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://example.com/resume/samairachakrabarti</t>
+          <t>Resume_VihaanGade_79.pdf</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -7746,6 +7860,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7775,7 +7890,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://example.com/resume/vghose</t>
+          <t>Resume_UrviLal_80.pdf</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -7836,6 +7951,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7865,7 +7981,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://example.com/resume/psane</t>
+          <t>Resume_BijuBatta_81.pdf</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7926,6 +8042,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7955,7 +8072,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://example.com/resume/walladarshit</t>
+          <t>Resume_BhavinDatta_82.pdf</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -8016,6 +8133,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8045,7 +8163,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://example.com/resume/ncomar</t>
+          <t>Resume_ManjariGolla_83.pdf</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -8106,6 +8224,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8135,7 +8254,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://example.com/resume/bhaminisaini</t>
+          <t>Resume_ZainSura_84.pdf</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -8196,6 +8315,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8225,7 +8345,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://example.com/resume/btripathi</t>
+          <t>Resume_DharmajanSen_85.pdf</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -8286,6 +8406,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8315,7 +8436,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://example.com/resume/stuvanswamy</t>
+          <t>Resume_RohanKothari_86.pdf</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -8376,6 +8497,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8405,7 +8527,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kiara85</t>
+          <t>Resume_AnviDutt_87.pdf</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -8466,6 +8588,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8495,7 +8618,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://example.com/resume/nravel</t>
+          <t>Resume_AayushMani_88.pdf</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -8556,6 +8679,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8585,7 +8709,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://example.com/resume/qbal</t>
+          <t>Resume_GokulKhosla_89.pdf</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -8646,6 +8770,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8675,7 +8800,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://example.com/resume/faiyazkeer</t>
+          <t>Resume_SamihaKarpe_90.pdf</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -8736,6 +8861,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8765,7 +8891,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://example.com/resume/kgrewal</t>
+          <t>Resume_ElaWarrior_91.pdf</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -8826,6 +8952,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8855,7 +8982,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://example.com/resume/ayeshachana</t>
+          <t>Resume_ElaDevan_92.pdf</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -8916,6 +9043,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8945,7 +9073,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://example.com/resume/dharmajanuppal</t>
+          <t>Resume_SamarthDhawan_93.pdf</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -9006,6 +9134,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9035,7 +9164,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://example.com/resume/rasha30</t>
+          <t>Resume_ReyanshBorah_94.pdf</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -9096,6 +9225,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9125,7 +9255,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://example.com/resume/anvibahri</t>
+          <t>Resume_ShlokGulati_95.pdf</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -9186,6 +9316,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9215,7 +9346,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://example.com/resume/tara42</t>
+          <t>Resume_NeysaLalla_96.pdf</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -9276,6 +9407,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9305,7 +9437,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://example.com/resume/hsamra</t>
+          <t>Resume_FaiyazJaggi_97.pdf</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -9366,6 +9498,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9395,7 +9528,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://example.com/resume/trisha63</t>
+          <t>Resume_AdvikaBassi_98.pdf</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -9456,6 +9589,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9485,7 +9619,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://example.com/resume/balmiraya</t>
+          <t>Resume_ZeeshanKrish_99.pdf</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -9546,6 +9680,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9575,7 +9710,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://example.com/resume/lallanishith</t>
+          <t>Resume_JiyaDe_100.pdf</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -9636,6 +9771,7 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9665,7 +9801,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://example.com/resume/ojas60</t>
+          <t>Resume_DivijChaudhuri_101.pdf</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -9726,6 +9862,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -9755,7 +9892,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://example.com/resume/buchstuvan</t>
+          <t>Resume_KismatBorah_102.pdf</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -9816,6 +9953,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -9845,7 +9983,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://example.com/resume/chaudharireyansh</t>
+          <t>Resume_MamootyKale_103.pdf</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -9906,6 +10044,7 @@
           <t>No</t>
         </is>
       </c>
+      <c r="AG103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9935,7 +10074,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://example.com/resume/jhanvi85</t>
+          <t>Resume_GatikAndra_104.pdf</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -9996,6 +10135,136 @@
           <t>Yes</t>
         </is>
       </c>
+      <c r="AG104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>samp</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Resume_samp_105.pdf</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>sample-1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1767177966_JAGADEESH-M-FlowCV-Resume-20251212.pdf</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>sample 2</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1767177991_JAGADEESH-M-FlowCV-Resume-20251212.pdf</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/my_app/uploads/data.xlsx
+++ b/my_app/uploads/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG107"/>
+  <dimension ref="A1:AG109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:AF104"/>
@@ -1278,7 +1278,11 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>{"Communication":"good","Technical Assessment":"good","Problem-Solving":"good","Overall Potential":"good","Recommendation":"Proceed Round 2"}</t>
+        </is>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
@@ -1288,7 +1292,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AG7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>ashwin</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -10266,6 +10274,164 @@
       <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-12-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Jeenusha John</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>jkhjjjqq@example.com</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>9999999992</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/in/jeenusha</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4a4de728-6ddd-4f48-9441-b3ac101b2291-JeenushaJohn_Resume.pdf</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>ABC Corp</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Chennai</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Any</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Applied</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Proceed Further</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>JAGADEESH M</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_app/uploads/data.xlsx
+++ b/my_app/uploads/data.xlsx
@@ -591,82 +591,82 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-18 18:48:54</t>
+          <t>2025-12-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Jeenusha John</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>john.doe@example.com</t>
+          <t>jkhjjjqq@example.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9876543210</t>
+          <t>9999999992</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://linkedin.com/in/johndoe</t>
+          <t>https://linkedin.com/in/jeenusha</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Resume_JohnDoe_2.pdf</t>
+          <t>4a4de728-6ddd-4f48-9441-b3ac101b2291-JeenushaJohn_Resume.pdf</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Software Developer</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Junior Developer</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Tech Solutions Inc.</t>
+          <t>ABC Corp</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2-3 years</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Chennai</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Bangalore</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>800000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1200000</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>30 days</t>
+          <t>30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -680,48 +680,20 @@
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>AWS Certified Developer</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Employee Referral</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Scheduled</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>Promising candidate</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Candidate performed well in initial screening.</t>
-        </is>
-      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>{"Communication":"","Technical Assessment":"","Problem-Solving":"","Overall Potential":"","Recommendation":"Proceed Round 2"}</t>
-        </is>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Good problem-solving approach in Round 2.</t>
-        </is>
-      </c>
+      <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
@@ -856,11 +828,15 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>{"Communication":"good","Technical Assessment":"good","Problem-Solving":"good","Overall Potential":"good","Recommendation":"Proceed Round 2"}</t>
+          <t>{"Communication":"","Technical Assessment":"","Problem-Solving":"","Overall Potential":"","Recommendation":"Proceed Round 2"}</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>{"Communication":"","Technical Assessment":"","Problem-Solving":"","Overall Potential":"","Recommendation":" very good ","CTC":""}</t>
+        </is>
+      </c>
       <c r="AD3" t="inlineStr">
         <is>
           <t>junior engineering</t>
@@ -874,57 +850,61 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>ashwin</t>
+          <t>admin</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12/18/2025</t>
+          <t>2025-12-23T00:00:00.000Z</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ram</t>
+          <t>Jeenusha John</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sam.wilson@example.com</t>
+          <t>jkhjjj@example.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7654321098</t>
+          <t>9999999999</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://linkedin.com/in/samwilson</t>
+          <t>https://linkedin.com/in/jeenusha</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Resume_Ram_4.pdf</t>
+          <t>7ae92d4c-aecf-4caf-86cb-61d57e5bdcf3-JeenushaJohn_Resume.pdf</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>UI/UX Designer</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Engineer</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Creative Designs</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>ABC Corp</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Chennai</t>
@@ -932,24 +912,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Chennai</t>
+          <t>Any</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>700000</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1000000</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -958,61 +946,25 @@
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Adobe Certified Expert</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Campus Recruitment</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Applied</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>Rejected</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Not enough experience</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr"/>

--- a/my_app/uploads/data.xlsx
+++ b/my_app/uploads/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG109"/>
+  <dimension ref="A1:AG112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:AF104"/>
@@ -682,12 +682,12 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Offer</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -10384,6 +10384,127 @@
       <c r="AF109" t="inlineStr"/>
       <c r="AG109" t="inlineStr"/>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>JAGADEESH M</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>JAGADEESH M</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>JAGADEESH M</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>nill</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/my_app/uploads/data.xlsx
+++ b/my_app/uploads/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG112"/>
+  <dimension ref="A1:AG132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:AF104"/>
@@ -10505,6 +10505,894 @@
       <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-09 16:51:24</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>JAGADEESH M</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-09 16:57:10</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Test Candidate API</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:02:02</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Test Candidate</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:02:23</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Test Candidate with File</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1767958343_dummy_resume.pdf</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:03:01</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Test Candidate with File</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1767958381_dummy_resume.pdf</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:03:40</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Test Candidate with File</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1767958420_dummy_resume.pdf</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:09:32</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:10:32</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>API Test User 2</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:11:19</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>API Test User Final</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:12:17</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>API Test User Unique</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:14:04</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>API Test User Final</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:14:34</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>API Test Manual</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>manual_1767959073784@example.com</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2222222222</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:18:50</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Fixed API Test</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:19:55</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Fixed API Test</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:23:15</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Final Test</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:25:26</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Observed Test</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:27:36</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>UniqueName12345</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:34:16</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Final Test Candidate</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:35:11</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Second Test Candidate</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1767960311_dummy_resume.pdf</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:35:41</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Final Test Candidate</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1767960341_resume.pdf</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
